--- a/public/20220421_SUGGEREIX_Taula_A4.xlsx
+++ b/public/20220421_SUGGEREIX_Taula_A4.xlsx
@@ -1,19 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra.sharepoint.com/sites/SADSUGGEREIX/Materiales de clase/Doc_SAD_actualitzada/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_013BE0263988F37BD8F142E6F7ED0C930FC3E02C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8696F501-F282-4A64-813B-03FFDBA453E9}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="A4_1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="A4_2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Ref" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="A4_1" sheetId="1" r:id="rId1"/>
+    <sheet name="A4_2" sheetId="2" r:id="rId2"/>
+    <sheet name="A4_3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -21,13 +36,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,32 +63,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Watch List</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Merce Font:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Actualment els mètodes tenen LOQ superior al requerit.</t>
+          <t>Watch List</t>
         </r>
       </text>
     </comment>
@@ -82,105 +72,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="178">
-  <si>
-    <t xml:space="preserve">Taula A4. Mètodes de monitoratge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paràmetre/Indicador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codi indicador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mètode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freqüència</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mètode estàndard o desenvolupat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referència d'exemple del mètode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diversos mètodes; p. ex. sensor basat en el principi de Venturi, sensor ultrasònic i sensor electromagnètic per a la mesura del cabal en conductes tancats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mètode estàndard</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="189">
+  <si>
+    <t>Taula A4. Mètodes de monitoratge</t>
+  </si>
+  <si>
+    <t>Paràmetre/Indicador</t>
+  </si>
+  <si>
+    <t>Codi indicador</t>
+  </si>
+  <si>
+    <t>Mètode</t>
+  </si>
+  <si>
+    <t>Freqüència</t>
+  </si>
+  <si>
+    <t>Mètode estàndard o desenvolupat</t>
+  </si>
+  <si>
+    <t>Referència d'exemple del mètode</t>
+  </si>
+  <si>
+    <t>Cabal</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Diversos mètodes; p. ex. sensor basat en el principi de Venturi, sensor ultrasònic i sensor electromagnètic per a la mesura del cabal en conductes tancats</t>
+  </si>
+  <si>
+    <t>Continu</t>
+  </si>
+  <si>
+    <t>Mètode estàndard</t>
   </si>
   <si>
     <t xml:space="preserve">Diversos estàndards </t>
   </si>
   <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elèctrode de pH (potenciometria)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 10523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductivitat elèctrica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor de la conductivitat elèctrica (potenciometria)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN 27888; ISO 7888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terbolesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbidimetria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 7027-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sòlids en suspensió totals (SST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtració amb filtres de fibra de vidre i gravimetria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periòdic</t>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>Elèctrode de pH (potenciometria)</t>
+  </si>
+  <si>
+    <t>ISO 10523</t>
+  </si>
+  <si>
+    <t>Conductivitat elèctrica</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>Sensor de la conductivitat elèctrica (potenciometria)</t>
+  </si>
+  <si>
+    <t>EN 27888; ISO 7888</t>
+  </si>
+  <si>
+    <t>Terbolesa</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>Turbidimetria</t>
+  </si>
+  <si>
+    <t>ISO 7027-1</t>
+  </si>
+  <si>
+    <t>Sòlids en suspensió totals (SST)</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>Filtració amb filtres de fibra de vidre i gravimetria</t>
+  </si>
+  <si>
+    <t>Periòdic</t>
   </si>
   <si>
     <t xml:space="preserve">Mètode estàndard </t>
   </si>
   <si>
-    <t xml:space="preserve">EN 872, ISO 11923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carboni orgànic total (COT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I5</t>
+    <t>EN 872, ISO 11923</t>
+  </si>
+  <si>
+    <t>Carboni orgànic total (COT)</t>
+  </si>
+  <si>
+    <t>I5</t>
   </si>
   <si>
     <r>
@@ -190,7 +180,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Oxidació del carboni orgànic (p. ex. combustió, radiació UV/persulfat) i detecció CO</t>
+      <t>Oxidació del carboni orgànic (p. ex. combustió, radiació UV/persulfat) i detecció CO</t>
     </r>
     <r>
       <rPr>
@@ -200,7 +190,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 (</t>
+      <t>2 (</t>
     </r>
     <r>
       <rPr>
@@ -209,14 +199,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">p. ex. espectrometria IR)</t>
+      <t>p. ex. espectrometria IR)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Continu o periòdic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN 1484; ISO 8245</t>
+    <t>Continu o periòdic</t>
+  </si>
+  <si>
+    <t>EN 1484; ISO 8245</t>
   </si>
   <si>
     <r>
@@ -226,7 +216,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">NH</t>
+      <t>NH</t>
     </r>
     <r>
       <rPr>
@@ -236,7 +226,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -246,29 +236,29 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+</t>
+      <t>+</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">I6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cromatografia iònica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 14911; Michalski i Kurzyca 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorimetria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 7150-1; ISO 11732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor selectiu de ions (potenciometria)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 6778</t>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>Cromatografia iònica</t>
+  </si>
+  <si>
+    <t>ISO 14911; Michalski i Kurzyca 2006</t>
+  </si>
+  <si>
+    <t>Colorimetria</t>
+  </si>
+  <si>
+    <t>ISO 7150-1; ISO 11732</t>
+  </si>
+  <si>
+    <t>Sensor selectiu de ions (potenciometria)</t>
+  </si>
+  <si>
+    <t>ISO 6778</t>
   </si>
   <si>
     <r>
@@ -278,7 +268,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">NO</t>
+      <t>NO</t>
     </r>
     <r>
       <rPr>
@@ -288,7 +278,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -298,167 +288,167 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-</t>
+      <t>-</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">I7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 10304-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 7890-3; ISO 13395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Methods 4500-NO3- D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absorció radiació UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mètode desenvolupat no estàndard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pellerin et al. 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICP-OES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 11885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICP-MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 17294-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 15586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbamazepina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-MS-MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gros et al. 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diclofenac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N,N-Dietil-m-toluamida (DEET)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loos et al. 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iopromida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,4-Dioxà</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC-MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rüdel et al. 2020; Sun et al. 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venlafaxina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cafeïna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huerta-Fontela et al. 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Àcid perfluorooctanosulfònic (PFOS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flores et al. 2013; Loos et al. 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bis(2-etilhexil) ftalat (DEHP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bizkarguenaga et al. 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escherichia coli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cultiu + testos bioquímics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 9308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colífags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assajos en cultius de bacteris infectats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 10705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qPCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamy et al. 2020</t>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>ISO 10304-1</t>
+  </si>
+  <si>
+    <t>ISO 7890-3; ISO 13395</t>
+  </si>
+  <si>
+    <t>Standard Methods 4500-NO3- D</t>
+  </si>
+  <si>
+    <t>Absorció radiació UV</t>
+  </si>
+  <si>
+    <t>Mètode desenvolupat no estàndard</t>
+  </si>
+  <si>
+    <t>Pellerin et al. 2013</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>ICP-OES</t>
+  </si>
+  <si>
+    <t>ISO 11885</t>
+  </si>
+  <si>
+    <t>ICP-MS</t>
+  </si>
+  <si>
+    <t>ISO 17294-2</t>
+  </si>
+  <si>
+    <t>AAS</t>
+  </si>
+  <si>
+    <t>ISO 15586</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>Carbamazepina</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>LC-MS-MS</t>
+  </si>
+  <si>
+    <t>Gros et al. 2012</t>
+  </si>
+  <si>
+    <t>Diclofenac</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>N,N-Dietil-m-toluamida (DEET)</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>Loos et al. 2013</t>
+  </si>
+  <si>
+    <t>Iopromida</t>
+  </si>
+  <si>
+    <t>I13</t>
+  </si>
+  <si>
+    <t>1,4-Dioxà</t>
+  </si>
+  <si>
+    <t>I14</t>
+  </si>
+  <si>
+    <t>GC-MS</t>
+  </si>
+  <si>
+    <t>Rüdel et al. 2020; Sun et al. 2016</t>
+  </si>
+  <si>
+    <t>Venlafaxina</t>
+  </si>
+  <si>
+    <t>I15</t>
+  </si>
+  <si>
+    <t>Cafeïna</t>
+  </si>
+  <si>
+    <t>I16</t>
+  </si>
+  <si>
+    <t>Huerta-Fontela et al. 2007</t>
+  </si>
+  <si>
+    <t>Àcid perfluorooctanosulfònic (PFOS)</t>
+  </si>
+  <si>
+    <t>I17</t>
+  </si>
+  <si>
+    <t>Flores et al. 2013; Loos et al. 2013</t>
+  </si>
+  <si>
+    <t>Bis(2-etilhexil) ftalat (DEHP)</t>
+  </si>
+  <si>
+    <t>I18</t>
+  </si>
+  <si>
+    <t>Bizkarguenaga et al. 2012</t>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
+    <t>I19</t>
+  </si>
+  <si>
+    <t>Cultiu + testos bioquímics</t>
+  </si>
+  <si>
+    <t>ISO 9308</t>
+  </si>
+  <si>
+    <t>Colífags</t>
+  </si>
+  <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>Assajos en cultius de bacteris infectats</t>
+  </si>
+  <si>
+    <t>ISO 10705</t>
+  </si>
+  <si>
+    <t>qPCR</t>
+  </si>
+  <si>
+    <t>Lamy et al. 2020</t>
   </si>
   <si>
     <r>
@@ -468,11 +458,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Espores</t>
+      <t>Espores</t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -482,34 +472,31 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">I21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtració per membrana + cultiu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 14189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-nitrosodimetilamina (NDMA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farré et al. 2011; Munch i Bassett 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triclorometà</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munch 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clor lliure residual</t>
+    <t>I21</t>
+  </si>
+  <si>
+    <t>Filtració per membrana + cultiu</t>
+  </si>
+  <si>
+    <t>ISO 14189</t>
+  </si>
+  <si>
+    <t>N-nitrosodimetilamina (NDMA)</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>Farré et al. 2011; Munch i Bassett 2004</t>
+  </si>
+  <si>
+    <t>Triclorometà</t>
+  </si>
+  <si>
+    <t>I23</t>
+  </si>
+  <si>
+    <t>Clor lliure residual</t>
   </si>
   <si>
     <r>
@@ -520,7 +507,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ISO 7393-2; Standard Methods 4500-Cl;</t>
+      <t>ISO 7393-2; Standard Methods 4500-Cl;</t>
     </r>
     <r>
       <rPr>
@@ -533,151 +520,136 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Sistema de control automàtic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WaterSecure 2017 c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocloramina residual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 7393-2; Standard Methods 4500-Cl; Melchert et al. 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozó residual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema de control automàtic calibrat amb mesures d'O3 determinades per colorimetria o bé calibrat amb algoritmes que mesuren l'absorbància de radiació UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US EPA 2010 (Appendix C); Ross 2020; Wittmer 2013, Alt 2016, : mesura dosi O3 proporcional a absorbància UV/Vis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Methods 4500-O3 B; Bader i Hoigné 1981; US EPA 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diòxid de clor residual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mètode electroanalític (amperometria)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Methods 4500-ClO2 C o E; Tzanavaras et al. 2006; US EPA 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Methods 4500-ClO2 D; US EPA 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peròxid d'hidrogen residual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mètode estàndard (proposat)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Methods 4500-H2O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diferència de pressió</t>
+    <t>Sistema de control automàtic</t>
+  </si>
+  <si>
+    <t>nd</t>
+  </si>
+  <si>
+    <t>WaterSecure 2017 c</t>
+  </si>
+  <si>
+    <t>Monocloramina residual</t>
+  </si>
+  <si>
+    <t>ISO 7393-2; Standard Methods 4500-Cl; Melchert et al. 2010</t>
+  </si>
+  <si>
+    <t>Ozó residual</t>
+  </si>
+  <si>
+    <t>Standard Methods 4500-O3 B; Bader i Hoigné 1981; US EPA 2010</t>
+  </si>
+  <si>
+    <t>Diòxid de clor residual</t>
+  </si>
+  <si>
+    <t>Mètode electroanalític (amperometria)</t>
+  </si>
+  <si>
+    <t>Standard Methods 4500-ClO2 C o E; Tzanavaras et al. 2006; US EPA 2010</t>
+  </si>
+  <si>
+    <t>Standard Methods 4500-ClO2 D; US EPA 2010</t>
+  </si>
+  <si>
+    <t>Peròxid d'hidrogen residual</t>
+  </si>
+  <si>
+    <t>Mètode estàndard (proposat)</t>
+  </si>
+  <si>
+    <t>Standard Methods 4500-H2O2</t>
+  </si>
+  <si>
+    <t>Diferència de pressió</t>
   </si>
   <si>
     <t xml:space="preserve">Sensor de pressió diferencial </t>
   </si>
   <si>
-    <t xml:space="preserve">Absorbància radiació UV (254 nm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espectrofotometria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxigen dissolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mètode electroquímic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 5814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperatura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor de temperatura; p. ex. termistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomassa llots actius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiviharju et al. 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intensitat radiació ultraviolada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WaterSecure 2017 b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proporció radiació ultraviolada transmesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosi coagulant i/o floculant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosi carbó actiu en pols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosi ozó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema de control automàtic basat en la mesura contínua del cabal d'ozó gas al sistema d'injecció; mesura contínua de la concentració d'ozó gas; i mesura contínua del cabal d'aigua al reactor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WaterSecure 2017 e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosi peròxid hidrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosi clor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosi hipoclorit sodi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosi diòxid de clor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosi monocloramina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temps de contacte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Límits de quantificació dels mètodes de mesura dels paràmetres i indicadors de qualitat química</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VP mín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unitat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referència</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOQ requerit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOQ disponible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comentari</t>
+    <t>Absorbància radiació UV (254 nm)</t>
+  </si>
+  <si>
+    <t>Espectrofotometria</t>
+  </si>
+  <si>
+    <t>Oxigen dissolt</t>
+  </si>
+  <si>
+    <t>Mètode electroquímic</t>
+  </si>
+  <si>
+    <t>ISO 5814</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Sensor de temperatura; p. ex. termistor</t>
+  </si>
+  <si>
+    <t>Intensitat radiació ultraviolada</t>
+  </si>
+  <si>
+    <t>WaterSecure 2017 b</t>
+  </si>
+  <si>
+    <t>Proporció radiació ultraviolada transmesa</t>
+  </si>
+  <si>
+    <t>Dosi coagulant i/o floculant</t>
+  </si>
+  <si>
+    <t>Dosi carbó actiu en pols</t>
+  </si>
+  <si>
+    <t>Dosi ozó</t>
+  </si>
+  <si>
+    <t>Sistema de control automàtic basat en la mesura contínua del cabal d'ozó gas al sistema d'injecció; mesura contínua de la concentració d'ozó gas; i mesura contínua del cabal d'aigua al reactor</t>
+  </si>
+  <si>
+    <t>WaterSecure 2017 e</t>
+  </si>
+  <si>
+    <t>Dosi peròxid hidrogen</t>
+  </si>
+  <si>
+    <t>Dosi clor</t>
+  </si>
+  <si>
+    <t>Dosi hipoclorit sodi</t>
+  </si>
+  <si>
+    <t>Dosi diòxid de clor</t>
+  </si>
+  <si>
+    <t>Dosi monocloramina</t>
+  </si>
+  <si>
+    <t>Límits de quantificació dels mètodes de mesura dels paràmetres i indicadors de qualitat química</t>
+  </si>
+  <si>
+    <t>Codi</t>
+  </si>
+  <si>
+    <t>VP mín</t>
+  </si>
+  <si>
+    <t>Unitat</t>
+  </si>
+  <si>
+    <t>Referència</t>
+  </si>
+  <si>
+    <t>LOQ requerit</t>
+  </si>
+  <si>
+    <t>LOQ disponible</t>
+  </si>
+  <si>
+    <t>Comentari</t>
   </si>
   <si>
     <r>
@@ -688,7 +660,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">NH</t>
+      <t>NH</t>
     </r>
     <r>
       <rPr>
@@ -699,7 +671,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -710,14 +682,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+</t>
+      <t>+</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">mg/l N-NH4+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor orientatiu basat en guies (Shoushtarian i Negahban-Azar 2020)</t>
+    <t>mg/l N-NH4+</t>
   </si>
   <si>
     <r>
@@ -728,7 +697,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">NO</t>
+      <t>NO</t>
     </r>
     <r>
       <rPr>
@@ -739,7 +708,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -750,90 +719,148 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-</t>
+      <t>-</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">mg/l N-NO3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">µg/l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Directiva 2008/105/CE, Directiva 2013/39/UE i RD 817/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,5-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 11885; ISO 17294-2; ISO 15586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 11885; ISO 17294-2; ISO 15587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEC (Norman 2021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOQ aigua sortida WWTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loos et al. 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEC PT3 (Norman 2021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEC PT3 (IGME et al. 2007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1-0,15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEC PT3 (ECHA 2021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referències </t>
+    <t>mg/l N-NO3-</t>
+  </si>
+  <si>
+    <t>µg/l</t>
+  </si>
+  <si>
+    <t>Directiva 2008/105/CE, Directiva 2013/39/UE i RD 817/2015</t>
+  </si>
+  <si>
+    <t>0,5-1</t>
+  </si>
+  <si>
+    <t>ISO 11885; ISO 17294-2; ISO 15586</t>
+  </si>
+  <si>
+    <t>0,1-2</t>
+  </si>
+  <si>
+    <t>ISO 11885; ISO 17294-2; ISO 15587</t>
+  </si>
+  <si>
+    <t>PNEC (Norman 2021)</t>
+  </si>
+  <si>
+    <t>LOQ aigua sortida WWTP</t>
+  </si>
+  <si>
+    <t>Loos et al. 2018</t>
+  </si>
+  <si>
+    <t>PNEC PT3 (Norman 2021)</t>
+  </si>
+  <si>
+    <t>PNEC PT3 (IGME et al. 2007)</t>
+  </si>
+  <si>
+    <t>0,1-0,15</t>
+  </si>
+  <si>
+    <t>PNEC PT3 (ECHA 2021)</t>
+  </si>
+  <si>
+    <t>US EPA 2010 (Appendix C); Ross 2020</t>
+  </si>
+  <si>
+    <t>Abreviacions</t>
+  </si>
+  <si>
+    <t>Abreviació</t>
+  </si>
+  <si>
+    <t>Definició completa</t>
+  </si>
+  <si>
+    <t>Epectrometria d'absorció atòmica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espectrometria de masses de plasma acoblat inductivament </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espectrometria d’emissió òptica de plasma acoblat </t>
+  </si>
+  <si>
+    <t>Cromatografia líquida amb espectrometria de masses en tàndem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cromatografia de gasos amb espectrometria de masses </t>
+  </si>
+  <si>
+    <t>Reacció en cadena de la polimerasa quantitativa</t>
+  </si>
+  <si>
+    <t>GC-ECD</t>
+  </si>
+  <si>
+    <t>ECD</t>
+  </si>
+  <si>
+    <t>Electron capture detector</t>
+  </si>
+  <si>
+    <t>Valor orientatiu basat en guies (WHO 2017)</t>
+  </si>
+  <si>
+    <t>Munch 1995</t>
+  </si>
+  <si>
+    <t>Flores et al. 2013; Loos et al. 2013. Actualment els mètodes tenen LOQ superior al requerit.</t>
+  </si>
+  <si>
+    <t>GC-MS-MS</t>
+  </si>
+  <si>
+    <t>RD 817/2015</t>
+  </si>
+  <si>
+    <r>
+      <t>Sistema de control automàtic calibrat amb mesures d'O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> determinades per colorimetria o bé calibrat amb algoritmes que mesuren l'absorbància de radiació UV</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="General"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -843,7 +870,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -851,7 +878,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -878,7 +905,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -886,7 +913,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -916,189 +943,152 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1157,39 +1147,347 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="62.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9.14"/>
+    <col min="1" max="1" width="39.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
+    <col min="7" max="1024" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1210,7 +1508,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1231,7 +1529,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1251,7 +1549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1271,7 +1569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1291,7 +1589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1311,7 +1609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -1331,7 +1629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -1351,7 +1649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -1371,7 +1669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
@@ -1391,7 +1689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -1411,7 +1709,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -1431,7 +1729,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
@@ -1451,7 +1749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
@@ -1471,7 +1769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
@@ -1491,7 +1789,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -1511,7 +1809,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -1531,7 +1829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
@@ -1551,7 +1849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
@@ -1571,7 +1869,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -1591,7 +1889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1611,7 +1909,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -1631,7 +1929,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
@@ -1651,7 +1949,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -1671,7 +1969,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -1691,7 +1989,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
@@ -1711,7 +2009,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -1731,7 +2029,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -1751,7 +2049,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -1771,7 +2069,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>88</v>
       </c>
@@ -1791,7 +2089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -1811,7 +2109,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -1831,7 +2129,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>98</v>
       </c>
@@ -1851,7 +2149,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>98</v>
       </c>
@@ -1871,7 +2169,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>102</v>
       </c>
@@ -1891,7 +2189,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -1899,7 +2197,7 @@
         <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>28</v>
@@ -1907,160 +2205,157 @@
       <c r="E38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>34</v>
@@ -2069,78 +2364,78 @@
         <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>40</v>
+      <c r="C48" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
-        <v>126</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>127</v>
+      <c r="C49" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>10</v>
@@ -2149,18 +2444,18 @@
         <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>10</v>
@@ -2169,799 +2464,790 @@
         <v>11</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
-        <v>133</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>111</v>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>110</v>
+      <c r="C59" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>110</v>
+      <c r="C60" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>110</v>
+      <c r="C61" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>110</v>
+      <c r="C62" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>110</v>
+      <c r="C63" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="11.42"/>
+    <col min="1" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="1024" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="11" t="n">
-        <v>0.466666666666667</v>
+      <c r="C4" s="24">
+        <f>600/1000*14/18</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="12" t="n">
-        <f aca="false">C4*0.3</f>
-        <v>0.14</v>
+        <v>187</v>
+      </c>
+      <c r="F4" s="21">
+        <f>C4*0.3</f>
+        <v>0.13999999999999999</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="13" t="n">
-        <v>2.25806451612903</v>
+      <c r="C5" s="24">
+        <f>25000/1000*1/62*14</f>
+        <v>5.6451612903225801</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="14" t="n">
-        <f aca="false">C5*0.3</f>
-        <v>0.67741935483871</v>
+        <v>187</v>
+      </c>
+      <c r="F5" s="21">
+        <f>C5*0.3</f>
+        <v>1.693548387096774</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="15" t="n">
-        <f aca="false">0.3*C6</f>
+        <v>158</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:F18" si="0">0.3*C6</f>
         <v>9</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>166</v>
+      <c r="G6" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="15" t="n">
-        <f aca="false">0.3*C7</f>
+        <v>158</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>168</v>
+      <c r="G7" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>0.05</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8" s="12" t="n">
-        <f aca="false">0.3*C8</f>
-        <v>0.015</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0.008</v>
+        <v>163</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>0.1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="12" t="n">
-        <f aca="false">0.3*C9</f>
+        <v>165</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>0.0171</v>
+      <c r="G9" s="1">
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <f aca="false">0.3*C10</f>
+        <v>163</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
         <v>26.4</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>0.001</v>
+      <c r="G10" s="1">
+        <v>1E-3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>0.14</v>
+      <c r="C11" s="1">
+        <v>0.14000000000000001</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="17" t="n">
-        <f aca="false">0.3*C11</f>
-        <v>0.042</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0.0228</v>
+        <v>166</v>
+      </c>
+      <c r="F11" s="23">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="7">
         <v>29000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="12" t="n">
-        <f aca="false">0.3*C12</f>
+        <v>167</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
         <v>8700</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>0.038</v>
+      <c r="C13" s="1">
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="17" t="n">
-        <f aca="false">0.3*C13</f>
-        <v>0.0114</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>0.0021</v>
+        <v>166</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999999E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="15" t="n">
-        <f aca="false">0.3*C14</f>
-        <v>26.1</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>0.005</v>
+        <v>169</v>
+      </c>
+      <c r="F14" s="22">
+        <f t="shared" si="0"/>
+        <v>26.099999999999998</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>0.00065</v>
+      <c r="C15" s="1">
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="18" t="n">
-        <f aca="false">0.3*C15</f>
-        <v>0.000195</v>
-      </c>
-      <c r="G15" s="19" t="n">
-        <v>0.0005</v>
+        <v>158</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>1.95E-4</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>1.3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="14" t="n">
-        <f aca="false">0.3*C16</f>
+        <v>158</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="1">
         <v>0.13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="19">
+        <v>0.1</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1" t="n">
-        <f aca="false">0.3*C17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="G17" s="20">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
       <c r="H17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="19">
+        <v>2.5</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1" t="n">
-        <f aca="false">0.3*C18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2970,161 +3256,191 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="23"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86E8BBA-D31B-4538-BCC7-9BB36389FC83}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="24" width="11.42"/>
+    <col min="1" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>65</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c19669d24ddccfa98c88097e93e023e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55bc200891e82d584dea70e9f8994413" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="625099e38fc716cc4bb30b36cfa7c837">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c97fa59194b5c482d1d5e2dd6e3e6b4b" ns2:_="">
     <xsd:import namespace="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -3134,6 +3450,11 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3154,6 +3475,33 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -3164,8 +3512,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -3254,23 +3602,59 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A77985AE-42AE-4A2B-913B-E5E05851EE02}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F36E16F-DF1A-473A-AFD5-6F4950C7FD58}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A79B44E-F529-45E6-81AB-F32F26836690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D91455D-57F1-4091-854A-DCF3C4DBCF66}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B0E896-02C8-4516-A9C3-929A1F756C25}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0525E5B4-09FB-4430-9A59-DBCCE988A51D}"/>
 </file>
--- a/public/20220421_SUGGEREIX_Taula_A4.xlsx
+++ b/public/20220421_SUGGEREIX_Taula_A4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra.sharepoint.com/sites/SADSUGGEREIX/Materiales de clase/Doc_SAD_actualitzada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_013BE0263988F37BD8F142E6F7ED0C930FC3E02C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8696F501-F282-4A64-813B-03FFDBA453E9}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_013BE0263988F37BD8F142E6F7ED0C930FC3E02C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E813CE32-6234-40EF-8B89-ADCDB3D7A7D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="193">
   <si>
     <t>Taula A4. Mètodes de monitoratge</t>
   </si>
@@ -496,6 +496,12 @@
     <t>I23</t>
   </si>
   <si>
+    <t>GC-ECD</t>
+  </si>
+  <si>
+    <t>Munch 1995</t>
+  </si>
+  <si>
     <t>Clor lliure residual</t>
   </si>
   <si>
@@ -536,6 +542,34 @@
   </si>
   <si>
     <t>Ozó residual</t>
+  </si>
+  <si>
+    <r>
+      <t>Sistema de control automàtic calibrat amb mesures d'O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> determinades per colorimetria o bé calibrat amb algoritmes que mesuren l'absorbància de radiació UV</t>
+    </r>
+  </si>
+  <si>
+    <t>US EPA 2010 (Appendix C); Ross 2020</t>
   </si>
   <si>
     <t>Standard Methods 4500-O3 B; Bader i Hoigné 1981; US EPA 2010</t>
@@ -689,6 +723,9 @@
     <t>mg/l N-NH4+</t>
   </si>
   <si>
+    <t>RD 817/2015</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -765,7 +802,13 @@
     <t>PNEC PT3 (ECHA 2021)</t>
   </si>
   <si>
-    <t>US EPA 2010 (Appendix C); Ross 2020</t>
+    <t>Flores et al. 2013; Loos et al. 2013. Actualment els mètodes tenen LOQ superior al requerit.</t>
+  </si>
+  <si>
+    <t>Valor orientatiu basat en guies (WHO 2017)</t>
+  </si>
+  <si>
+    <t>GC-MS-MS</t>
   </si>
   <si>
     <t>Abreviacions</t>
@@ -780,6 +823,9 @@
     <t>Epectrometria d'absorció atòmica</t>
   </si>
   <si>
+    <t xml:space="preserve">Cromatografia de gasos amb espectrometria de masses </t>
+  </si>
+  <si>
     <t xml:space="preserve">Espectrometria de masses de plasma acoblat inductivament </t>
   </si>
   <si>
@@ -789,59 +835,25 @@
     <t>Cromatografia líquida amb espectrometria de masses en tàndem</t>
   </si>
   <si>
-    <t xml:space="preserve">Cromatografia de gasos amb espectrometria de masses </t>
-  </si>
-  <si>
     <t>Reacció en cadena de la polimerasa quantitativa</t>
   </si>
   <si>
-    <t>GC-ECD</t>
-  </si>
-  <si>
     <t>ECD</t>
   </si>
   <si>
     <t>Electron capture detector</t>
   </si>
   <si>
-    <t>Valor orientatiu basat en guies (WHO 2017)</t>
-  </si>
-  <si>
-    <t>Munch 1995</t>
-  </si>
-  <si>
-    <t>Flores et al. 2013; Loos et al. 2013. Actualment els mètodes tenen LOQ superior al requerit.</t>
-  </si>
-  <si>
-    <t>GC-MS-MS</t>
-  </si>
-  <si>
-    <t>RD 817/2015</t>
-  </si>
-  <si>
-    <r>
-      <t>Sistema de control automàtic calibrat amb mesures d'O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> determinades per colorimetria o bé calibrat amb algoritmes que mesuren l'absorbància de radiació UV</t>
-    </r>
+    <t>Clorat</t>
+  </si>
+  <si>
+    <t>Clorit</t>
+  </si>
+  <si>
+    <t>Bromat</t>
+  </si>
+  <si>
+    <t>Djoukeng i Jensen 2016</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1062,9 +1074,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1465,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ74"/>
+  <dimension ref="A1:AMJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,7 +2182,7 @@
       <c r="A37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2193,11 +2202,11 @@
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>28</v>
@@ -2210,7 +2219,7 @@
       <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2223,109 +2232,108 @@
         <v>50</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>110</v>
+        <v>28</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G44" s="7"/>
+        <v>113</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
@@ -2338,7 +2346,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>11</v>
@@ -2349,25 +2357,25 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>116</v>
       </c>
@@ -2375,17 +2383,18 @@
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -2395,16 +2404,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>110</v>
+        <v>28</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2414,134 +2423,134 @@
       <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>40</v>
+      <c r="C49" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>123</v>
+      <c r="A50" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>125</v>
+      <c r="A51" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>127</v>
+      <c r="A52" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>128</v>
+      <c r="C52" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>110</v>
+      <c r="E53" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>134</v>
+      <c r="A55" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>133</v>
@@ -2549,199 +2558,259 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>109</v>
+      <c r="C56" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>110</v>
+      <c r="E56" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>109</v>
+      <c r="C57" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>109</v>
+      <c r="C61" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
     </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2764,89 +2833,89 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <f>600/1000*14/18</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="21">
+        <v>159</v>
+      </c>
+      <c r="F4" s="20">
         <f>C4*0.3</f>
         <v>0.13999999999999999</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <f>25000/1000*1/62*14</f>
         <v>5.6451612903225801</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="21">
+        <v>159</v>
+      </c>
+      <c r="F5" s="20">
         <f>C5*0.3</f>
         <v>1.693548387096774</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -2861,23 +2930,23 @@
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="22">
+        <v>163</v>
+      </c>
+      <c r="F6" s="21">
         <f t="shared" ref="F6:F18" si="0">0.3*C6</f>
         <v>9</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2891,23 +2960,23 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="22">
+        <v>163</v>
+      </c>
+      <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2921,10 +2990,10 @@
         <v>0.05</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
@@ -2934,13 +3003,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2954,10 +3023,10 @@
         <v>0.1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
@@ -2967,13 +3036,13 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2987,12 +3056,12 @@
         <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="22">
+        <v>168</v>
+      </c>
+      <c r="F10" s="21">
         <f t="shared" si="0"/>
         <v>26.4</v>
       </c>
@@ -3000,7 +3069,7 @@
         <v>1E-3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>70</v>
@@ -3017,12 +3086,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="23">
+        <v>171</v>
+      </c>
+      <c r="F11" s="22">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
@@ -3030,7 +3099,7 @@
         <v>2.2800000000000001E-2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>65</v>
@@ -3047,20 +3116,20 @@
         <v>29000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>8700</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>76</v>
@@ -3077,12 +3146,12 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="23">
+        <v>171</v>
+      </c>
+      <c r="F13" s="22">
         <f t="shared" si="0"/>
         <v>1.1399999999999999E-2</v>
       </c>
@@ -3090,7 +3159,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>65</v>
@@ -3107,12 +3176,12 @@
         <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="22">
+        <v>174</v>
+      </c>
+      <c r="F14" s="21">
         <f t="shared" si="0"/>
         <v>26.099999999999998</v>
       </c>
@@ -3120,7 +3189,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>81</v>
@@ -3137,10 +3206,10 @@
         <v>6.4999999999999997E-4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
@@ -3150,10 +3219,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3167,12 +3236,12 @@
         <v>1.3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="21">
+        <v>163</v>
+      </c>
+      <c r="F16" s="20">
         <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
@@ -3180,71 +3249,71 @@
         <v>0.13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <v>0.1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>183</v>
+        <v>162</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <f>1/1000</f>
         <v>1E-3</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>186</v>
+        <v>162</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>2.5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>1</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>186</v>
+      <c r="H18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3359,22 +3428,22 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3382,7 +3451,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3390,7 +3459,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3398,7 +3467,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3406,7 +3475,7 @@
         <v>54</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3414,7 +3483,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3422,15 +3491,15 @@
         <v>96</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3439,6 +3508,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="625099e38fc716cc4bb30b36cfa7c837">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c97fa59194b5c482d1d5e2dd6e3e6b4b" ns2:_="">
     <xsd:import namespace="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
@@ -3602,22 +3686,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B0E896-02C8-4516-A9C3-929A1F756C25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A79B44E-F529-45E6-81AB-F32F26836690}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F36E16F-DF1A-473A-AFD5-6F4950C7FD58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3633,28 +3726,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A79B44E-F529-45E6-81AB-F32F26836690}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B0E896-02C8-4516-A9C3-929A1F756C25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/public/20220421_SUGGEREIX_Taula_A4.xlsx
+++ b/public/20220421_SUGGEREIX_Taula_A4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra.sharepoint.com/sites/SADSUGGEREIX/Materiales de clase/Doc_SAD_actualitzada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="11_013BE0263988F37BD8F142E6F7ED0C930FC3E02C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E813CE32-6234-40EF-8B89-ADCDB3D7A7D9}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="11_013BE0263988F37BD8F142E6F7ED0C930FC3E02C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{6542F1C4-5895-4698-8DFF-033E1144DEC7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="200">
   <si>
     <t>Taula A4. Mètodes de monitoratge</t>
   </si>
@@ -209,37 +209,6 @@
     <t>EN 1484; ISO 8245</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>NH</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>+</t>
-    </r>
-  </si>
-  <si>
     <t>I6</t>
   </si>
   <si>
@@ -259,37 +228,6 @@
   </si>
   <si>
     <t>ISO 6778</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>NO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
   </si>
   <si>
     <t>I7</t>
@@ -500,6 +438,18 @@
   </si>
   <si>
     <t>Munch 1995</t>
+  </si>
+  <si>
+    <t>Clorat</t>
+  </si>
+  <si>
+    <t>Djoukeng i Jensen 2016</t>
+  </si>
+  <si>
+    <t>Clorit</t>
+  </si>
+  <si>
+    <t>Bromat</t>
   </si>
   <si>
     <t>Clor lliure residual</t>
@@ -844,16 +794,91 @@
     <t>Electron capture detector</t>
   </si>
   <si>
-    <t>Clorat</t>
-  </si>
-  <si>
-    <t>Clorit</t>
-  </si>
-  <si>
-    <t>Bromat</t>
-  </si>
-  <si>
-    <t>Djoukeng i Jensen 2016</t>
+    <r>
+      <t>Amoni (NH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nitrat (NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Zinc (Zn)</t>
+  </si>
+  <si>
+    <t>Níquel (Ni)</t>
+  </si>
+  <si>
+    <t>OT2</t>
+  </si>
+  <si>
+    <t>OT1</t>
+  </si>
+  <si>
+    <t>OT3</t>
+  </si>
+  <si>
+    <t>OT4</t>
+  </si>
+  <si>
+    <t>OT5</t>
   </si>
 </sst>
 </file>
@@ -1476,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,13 +1665,13 @@
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>28</v>
@@ -1655,18 +1680,18 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
@@ -1675,18 +1700,18 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -1695,18 +1720,18 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
@@ -1715,18 +1740,18 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>34</v>
@@ -1735,18 +1760,18 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -1755,38 +1780,38 @@
         <v>11</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>28</v>
@@ -1795,18 +1820,18 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>28</v>
@@ -1815,18 +1840,18 @@
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
@@ -1835,18 +1860,18 @@
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>28</v>
@@ -1855,18 +1880,18 @@
         <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>28</v>
@@ -1875,18 +1900,18 @@
         <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>28</v>
@@ -1895,198 +1920,198 @@
         <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>28</v>
@@ -2095,18 +2120,18 @@
         <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>28</v>
@@ -2115,38 +2140,38 @@
         <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>28</v>
@@ -2155,38 +2180,38 @@
         <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>28</v>
@@ -2195,18 +2220,18 @@
         <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>28</v>
@@ -2217,33 +2242,33 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>8</v>
+        <v>107</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>28</v>
@@ -2252,18 +2277,18 @@
         <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>8</v>
+        <v>109</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>28</v>
@@ -2272,18 +2297,18 @@
         <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>8</v>
+        <v>110</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>28</v>
@@ -2292,18 +2317,18 @@
         <v>11</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>34</v>
@@ -2312,38 +2337,38 @@
         <v>11</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>34</v>
@@ -2352,59 +2377,59 @@
         <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>28</v>
@@ -2413,18 +2438,18 @@
         <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>34</v>
@@ -2433,18 +2458,18 @@
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>34</v>
@@ -2453,58 +2478,58 @@
         <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>10</v>
@@ -2513,18 +2538,18 @@
         <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>10</v>
@@ -2533,18 +2558,18 @@
         <v>11</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>10</v>
@@ -2553,227 +2578,227 @@
         <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2833,54 +2858,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="23">
         <f>600/1000*14/18</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F4" s="20">
         <f>C4*0.3</f>
@@ -2888,26 +2913,26 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="23">
         <f>25000/1000*1/62*14</f>
         <v>5.6451612903225801</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="F5" s="20">
         <f>C5*0.3</f>
@@ -2915,85 +2940,85 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1">
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F6" s="21">
         <f t="shared" ref="F6:F18" si="0">0.3*C6</f>
         <v>9</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1">
         <v>0.05</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
@@ -3003,30 +3028,30 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>0.1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
@@ -3036,30 +3061,30 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1">
         <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
@@ -3069,27 +3094,27 @@
         <v>1E-3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F11" s="22">
         <f t="shared" si="0"/>
@@ -3099,57 +3124,57 @@
         <v>2.2800000000000001E-2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" s="7">
         <v>29000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>8700</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F13" s="22">
         <f t="shared" si="0"/>
@@ -3159,27 +3184,27 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="4">
         <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F14" s="21">
         <f t="shared" si="0"/>
@@ -3189,27 +3214,27 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1">
         <v>6.4999999999999997E-4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
@@ -3219,27 +3244,27 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1">
         <v>1.3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F16" s="20">
         <f t="shared" si="0"/>
@@ -3249,27 +3274,27 @@
         <v>0.13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" s="18">
         <v>0.1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
@@ -3280,27 +3305,27 @@
         <v>1E-3</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" s="18">
         <v>2.5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
@@ -3310,10 +3335,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3435,71 +3460,71 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3508,21 +3533,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="625099e38fc716cc4bb30b36cfa7c837">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c97fa59194b5c482d1d5e2dd6e3e6b4b" ns2:_="">
     <xsd:import namespace="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
@@ -3686,31 +3696,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B0E896-02C8-4516-A9C3-929A1F756C25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A79B44E-F529-45E6-81AB-F32F26836690}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F36E16F-DF1A-473A-AFD5-6F4950C7FD58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3726,4 +3727,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B0E896-02C8-4516-A9C3-929A1F756C25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A79B44E-F529-45E6-81AB-F32F26836690}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/20220421_SUGGEREIX_Taula_A4.xlsx
+++ b/public/20220421_SUGGEREIX_Taula_A4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra.sharepoint.com/sites/SADSUGGEREIX/Materiales de clase/Doc_SAD_actualitzada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="11_013BE0263988F37BD8F142E6F7ED0C930FC3E02C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{6542F1C4-5895-4698-8DFF-033E1144DEC7}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="11_013BE0263988F37BD8F142E6F7ED0C930FC3E02C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{0E9174EE-8BC9-48EE-B160-9BC40E8DC972}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A4_1" sheetId="1" r:id="rId1"/>
@@ -1054,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1115,6 +1115,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1501,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -2843,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ61"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3240,7 +3243,7 @@
         <f t="shared" si="0"/>
         <v>1.95E-4</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="24">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -3440,8 +3443,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3533,6 +3536,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="625099e38fc716cc4bb30b36cfa7c837">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c97fa59194b5c482d1d5e2dd6e3e6b4b" ns2:_="">
     <xsd:import namespace="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
@@ -3696,12 +3705,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3712,6 +3715,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B0E896-02C8-4516-A9C3-929A1F756C25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F36E16F-DF1A-473A-AFD5-6F4950C7FD58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3729,22 +3748,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B0E896-02C8-4516-A9C3-929A1F756C25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A79B44E-F529-45E6-81AB-F32F26836690}">
   <ds:schemaRefs>
